--- a/NWI00101_eri-amf-dns-tool.xlsx
+++ b/NWI00101_eri-amf-dns-tool.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kddixgn.sharepoint.com/sites/xGN525/Shared Documents/P01_025_xGN DevOpsPJ(運用推進)/50.自動化対応/案件管理/MM_まず、作ってみよう/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prot_nf_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1016" documentId="8_{750A9F35-EE42-4727-B040-1D548EF84E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42665F3C-0BE8-4E86-A0F9-6B34DE17DBD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF783E-686E-4A56-B94E-71BF6570CD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="703" firstSheet="7" activeTab="8" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
+    <workbookView xWindow="17025" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="703" firstSheet="5" activeTab="12" xr2:uid="{D7CFE9CE-3C5F-438F-8B70-AD7C361B08A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="シナリオイメージ_AMF" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="シナリオイメージ" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="参考" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="シナリオイメージ_AMF_一時修正" sheetId="6" state="hidden" r:id="rId4"/>
-    <sheet name="シナリオイメージ_AMF_0825" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="子シナリオイメージ_AMF_0825" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="シナリオイメージ_AMF_0825_段落差" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="シナリオイメージ_AMF" sheetId="4" r:id="rId1"/>
+    <sheet name="シナリオイメージ" sheetId="3" r:id="rId2"/>
+    <sheet name="参考" sheetId="5" r:id="rId3"/>
+    <sheet name="シナリオイメージ_AMF_一時修正" sheetId="6" r:id="rId4"/>
+    <sheet name="シナリオイメージ_AMF_0825" sheetId="7" r:id="rId5"/>
+    <sheet name="子シナリオイメージ_AMF_0825" sheetId="9" r:id="rId6"/>
+    <sheet name="シナリオイメージ_AMF_0825_段落差" sheetId="11" r:id="rId7"/>
     <sheet name="概要" sheetId="31" r:id="rId8"/>
     <sheet name="MAIN" sheetId="35" r:id="rId9"/>
     <sheet name="SUB_SHOW" sheetId="44" r:id="rId10"/>
@@ -27439,9 +27439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -27479,7 +27479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -27585,7 +27585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27727,7 +27727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -27806,7 +27806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F5CBF4-526F-48B2-90AE-D117CDA38698}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -30005,7 +30005,7 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -33502,7 +33502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DC96FA-9640-4E49-903A-A684C9E3F7C3}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -35203,7 +35203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC9198-7447-427D-AE5F-FE3379261455}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -36455,7 +36455,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
@@ -36744,6 +36744,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
+    <_x5bb9__x91cf_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010049A25908BAE4E34D84A7F37B2D89930C" ma:contentTypeVersion="21" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="320950a9ff318d368fd06d112ebab6ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="902cffed-5789-46ea-8e90-25c5f4a3eb88" xmlns:ns3="a138ede8-6299-4a04-8719-93fd95b4d78e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25b3e604262bf300a6656d1bcad7b89d" ns2:_="" ns3:_="">
     <xsd:import namespace="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
@@ -37018,44 +37041,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a138ede8-6299-4a04-8719-93fd95b4d78e" xsi:nil="true"/>
-    <_x5bb9__x91cf_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_x5099__x8003_ xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="902cffed-5789-46ea-8e90-25c5f4a3eb88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75487359-C1D1-4C96-9B77-F71E505BB138}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
-    <ds:schemaRef ds:uri="a138ede8-6299-4a04-8719-93fd95b4d78e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37078,9 +37067,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D865F6-7CA3-432D-8730-3D120F762E57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75487359-C1D1-4C96-9B77-F71E505BB138}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="902cffed-5789-46ea-8e90-25c5f4a3eb88"/>
+    <ds:schemaRef ds:uri="a138ede8-6299-4a04-8719-93fd95b4d78e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>